--- a/output_Giannis Antetokounmpo.xlsx
+++ b/output_Giannis Antetokounmpo.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date_x</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -701,8 +701,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1731888000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -738,30 +740,20 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>.286</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -769,10 +761,8 @@
       <c r="R2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S2" t="n">
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
@@ -780,23 +770,17 @@
       <c r="U2" t="n">
         <v>8</v>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V2" t="n">
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>20</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="X2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-2</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -888,8 +872,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1731456000</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -925,30 +911,20 @@
       <c r="K3" t="n">
         <v>0.5</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>.941</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
         <v>14</v>
@@ -956,10 +932,8 @@
       <c r="R3" t="n">
         <v>7</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S3" t="n">
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>3</v>
@@ -967,23 +941,17 @@
       <c r="U3" t="n">
         <v>3</v>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V3" t="n">
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>59</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="X3" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -1075,8 +1043,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1731369600</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1112,30 +1082,20 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>.556</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
@@ -1143,10 +1103,8 @@
       <c r="R4" t="n">
         <v>7</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S4" t="n">
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>4</v>
@@ -1154,23 +1112,17 @@
       <c r="U4" t="n">
         <v>4</v>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V4" t="n">
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>23</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>21.1</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -1262,8 +1214,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1731196800</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -1299,30 +1253,20 @@
       <c r="K5" t="n">
         <v>0.5</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>.600</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -1330,10 +1274,8 @@
       <c r="R5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S5" t="n">
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -1341,23 +1283,17 @@
       <c r="U5" t="n">
         <v>1</v>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V5" t="n">
+        <v>4</v>
       </c>
       <c r="W5" t="n">
         <v>43</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>34.9</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="X5" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-6</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -1449,8 +1385,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1731024000</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1488,30 +1426,20 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
       </c>
       <c r="Q6" t="n">
         <v>12</v>
@@ -1519,10 +1447,8 @@
       <c r="R6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S6" t="n">
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -1530,23 +1456,17 @@
       <c r="U6" t="n">
         <v>1</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V6" t="n">
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>24</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>17.9</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="X6" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-17</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -1638,8 +1558,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1730505600</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1675,30 +1597,20 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>.571</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
         <v>16</v>
@@ -1706,10 +1618,8 @@
       <c r="R7" t="n">
         <v>9</v>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S7" t="n">
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1717,23 +1627,17 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V7" t="n">
+        <v>5</v>
       </c>
       <c r="W7" t="n">
         <v>34</v>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>32.4</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="X7" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
@@ -1825,8 +1729,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1730332800</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1864,30 +1770,20 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>.375</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
         <v>11</v>
@@ -1895,10 +1791,8 @@
       <c r="R8" t="n">
         <v>4</v>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S8" t="n">
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1906,23 +1800,17 @@
       <c r="U8" t="n">
         <v>1</v>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V8" t="n">
+        <v>4</v>
       </c>
       <c r="W8" t="n">
         <v>37</v>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="X8" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
@@ -2014,8 +1902,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1730073600</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2053,30 +1943,20 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -2084,10 +1964,8 @@
       <c r="R9" t="n">
         <v>6</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S9" t="n">
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -2095,23 +1973,17 @@
       <c r="U9" t="n">
         <v>7</v>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V9" t="n">
+        <v>4</v>
       </c>
       <c r="W9" t="n">
         <v>30</v>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>14.8</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
+      <c r="X9" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-19</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
@@ -2203,8 +2075,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1729814400</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2240,30 +2114,20 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
         <v>11</v>
@@ -2271,10 +2135,8 @@
       <c r="R10" t="n">
         <v>5</v>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S10" t="n">
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -2282,23 +2144,17 @@
       <c r="U10" t="n">
         <v>3</v>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V10" t="n">
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>38</v>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>28.5</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="X10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-12</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -2390,8 +2246,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1729641600</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2429,30 +2287,20 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>.563</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>16</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13</v>
       </c>
       <c r="Q11" t="n">
         <v>14</v>
@@ -2460,10 +2308,8 @@
       <c r="R11" t="n">
         <v>7</v>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S11" t="n">
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -2471,23 +2317,17 @@
       <c r="U11" t="n">
         <v>3</v>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V11" t="n">
+        <v>4</v>
       </c>
       <c r="W11" t="n">
         <v>25</v>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>23.3</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="X11" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -2579,8 +2419,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1712620800</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -2616,30 +2458,20 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
         <v>8</v>
@@ -2647,10 +2479,8 @@
       <c r="R12" t="n">
         <v>7</v>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -2658,23 +2488,17 @@
       <c r="U12" t="n">
         <v>4</v>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V12" t="n">
+        <v>1</v>
       </c>
       <c r="W12" t="n">
         <v>15</v>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>16.2</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="X12" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>17</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
@@ -2766,8 +2590,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1712448000</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -2803,30 +2629,20 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>.727</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -2834,10 +2650,8 @@
       <c r="R13" t="n">
         <v>8</v>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S13" t="n">
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -2845,23 +2659,17 @@
       <c r="U13" t="n">
         <v>4</v>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V13" t="n">
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>28</v>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>25.7</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X13" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-5</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -2953,8 +2761,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1712102400</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2990,30 +2800,20 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
       </c>
       <c r="Q14" t="n">
         <v>7</v>
@@ -3021,10 +2821,8 @@
       <c r="R14" t="n">
         <v>8</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S14" t="n">
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>5</v>
@@ -3032,23 +2830,17 @@
       <c r="U14" t="n">
         <v>3</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V14" t="n">
+        <v>4</v>
       </c>
       <c r="W14" t="n">
         <v>21</v>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>16.1</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="X14" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -3140,8 +2932,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1712016000</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3179,30 +2973,20 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>.556</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -3210,10 +2994,8 @@
       <c r="R15" t="n">
         <v>10</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S15" t="n">
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -3221,23 +3003,17 @@
       <c r="U15" t="n">
         <v>2</v>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V15" t="n">
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>35</v>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>34.6</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="X15" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -3329,8 +3105,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1711756800</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3368,30 +3146,20 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L16" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12</v>
       </c>
       <c r="Q16" t="n">
         <v>16</v>
@@ -3399,10 +3167,8 @@
       <c r="R16" t="n">
         <v>8</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S16" t="n">
+        <v>3</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -3410,23 +3176,17 @@
       <c r="U16" t="n">
         <v>3</v>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V16" t="n">
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>36</v>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>35.7</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="X16" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -3518,8 +3278,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1711411200</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3555,30 +3317,20 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>.167</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>13</v>
       </c>
       <c r="Q17" t="n">
         <v>21</v>
@@ -3586,10 +3338,8 @@
       <c r="R17" t="n">
         <v>11</v>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S17" t="n">
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
@@ -3597,23 +3347,17 @@
       <c r="U17" t="n">
         <v>7</v>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V17" t="n">
+        <v>3</v>
       </c>
       <c r="W17" t="n">
         <v>29</v>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>28.2</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
+      <c r="X17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-13</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -3705,8 +3449,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1711238400</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3742,30 +3488,20 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11</v>
       </c>
       <c r="Q18" t="n">
         <v>19</v>
@@ -3773,10 +3509,8 @@
       <c r="R18" t="n">
         <v>4</v>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S18" t="n">
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -3784,23 +3518,17 @@
       <c r="U18" t="n">
         <v>3</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V18" t="n">
+        <v>3</v>
       </c>
       <c r="W18" t="n">
         <v>30</v>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="X18" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -3892,8 +3620,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1710374400</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3929,30 +3659,20 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>.778</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L19" t="n">
+        <v>14</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
         <v>11</v>
@@ -3960,10 +3680,8 @@
       <c r="R19" t="n">
         <v>7</v>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S19" t="n">
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3971,23 +3689,17 @@
       <c r="U19" t="n">
         <v>7</v>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V19" t="n">
+        <v>4</v>
       </c>
       <c r="W19" t="n">
         <v>32</v>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="X19" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-4</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -4079,8 +3791,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1710201600</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4118,30 +3832,20 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>.714</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>14</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>12</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -4149,10 +3853,8 @@
       <c r="R20" t="n">
         <v>4</v>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -4160,23 +3862,17 @@
       <c r="U20" t="n">
         <v>4</v>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V20" t="n">
+        <v>3</v>
       </c>
       <c r="W20" t="n">
         <v>30</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>23.4</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
+      <c r="X20" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-18</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -4268,8 +3964,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>1710028800</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4307,30 +4005,20 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>15</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
         <v>7</v>
@@ -4338,10 +4026,8 @@
       <c r="R21" t="n">
         <v>10</v>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S21" t="n">
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -4349,23 +4035,17 @@
       <c r="U21" t="n">
         <v>3</v>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V21" t="n">
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>34</v>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>26.6</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="X21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>19</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -4457,8 +4137,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1709856000</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4496,30 +4178,20 @@
       <c r="K22" t="n">
         <v>0.333</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>.714</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12</v>
       </c>
       <c r="Q22" t="n">
         <v>14</v>
@@ -4527,10 +4199,8 @@
       <c r="R22" t="n">
         <v>12</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S22" t="n">
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -4538,23 +4208,17 @@
       <c r="U22" t="n">
         <v>4</v>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V22" t="n">
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>34</v>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="X22" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-4</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -4646,8 +4310,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1709683200</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4685,30 +4351,20 @@
       <c r="K23" t="n">
         <v>0.333</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
         <v>7</v>
@@ -4716,10 +4372,8 @@
       <c r="R23" t="n">
         <v>6</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S23" t="n">
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
@@ -4727,23 +4381,17 @@
       <c r="U23" t="n">
         <v>2</v>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V23" t="n">
+        <v>1</v>
       </c>
       <c r="W23" t="n">
         <v>23</v>
       </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>19.9</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="X23" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-6</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -4835,8 +4483,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1709251200</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4874,30 +4524,20 @@
       <c r="K24" t="n">
         <v>0.667</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L24" t="n">
+        <v>12</v>
+      </c>
+      <c r="M24" t="n">
+        <v>16</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>11</v>
       </c>
       <c r="Q24" t="n">
         <v>16</v>
@@ -4905,10 +4545,8 @@
       <c r="R24" t="n">
         <v>6</v>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S24" t="n">
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
@@ -4916,23 +4554,17 @@
       <c r="U24" t="n">
         <v>1</v>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V24" t="n">
+        <v>3</v>
       </c>
       <c r="W24" t="n">
         <v>46</v>
       </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>45.9</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="X24" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>6</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -5024,8 +4656,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1708819200</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5063,30 +4697,20 @@
       <c r="K25" t="n">
         <v>0.5</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L25" t="n">
+        <v>9</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>11</v>
       </c>
       <c r="Q25" t="n">
         <v>12</v>
@@ -5094,10 +4718,8 @@
       <c r="R25" t="n">
         <v>9</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S25" t="n">
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
@@ -5105,23 +4727,17 @@
       <c r="U25" t="n">
         <v>6</v>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V25" t="n">
+        <v>1</v>
       </c>
       <c r="W25" t="n">
         <v>30</v>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>25.5</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="X25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>14</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -5213,8 +4829,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1708646400</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5252,30 +4870,20 @@
       <c r="K26" t="n">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L26" t="n">
+        <v>14</v>
+      </c>
+      <c r="M26" t="n">
+        <v>21</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -5283,10 +4891,8 @@
       <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S26" t="n">
+        <v>1</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -5294,23 +4900,17 @@
       <c r="U26" t="n">
         <v>3</v>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V26" t="n">
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>33</v>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>31.3</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X26" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -5402,8 +5002,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1707955200</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5441,30 +5043,20 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>.556</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L27" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
         <v>4</v>
@@ -5472,10 +5064,8 @@
       <c r="R27" t="n">
         <v>12</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S27" t="n">
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -5483,23 +5073,17 @@
       <c r="U27" t="n">
         <v>1</v>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V27" t="n">
+        <v>5</v>
       </c>
       <c r="W27" t="n">
         <v>35</v>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
+      <c r="X27" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-14</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
@@ -5591,8 +5175,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1707782400</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -5628,28 +5214,20 @@
       <c r="K28" t="n">
         <v>0.5</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9</v>
       </c>
       <c r="Q28" t="n">
         <v>11</v>
@@ -5657,10 +5235,8 @@
       <c r="R28" t="n">
         <v>8</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S28" t="n">
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>2</v>
@@ -5668,23 +5244,17 @@
       <c r="U28" t="n">
         <v>5</v>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="V28" t="n">
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>23</v>
       </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>20.9</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
+      <c r="X28" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-23</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
@@ -5776,8 +5346,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1707696000</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -5813,30 +5385,20 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>.571</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>14</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>14</v>
       </c>
       <c r="Q29" t="n">
         <v>18</v>
@@ -5844,10 +5406,8 @@
       <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S29" t="n">
+        <v>3</v>
       </c>
       <c r="T29" t="n">
         <v>2</v>
@@ -5855,23 +5415,17 @@
       <c r="U29" t="n">
         <v>2</v>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V29" t="n">
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>36</v>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="X29" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>18</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
@@ -5963,8 +5517,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1707350400</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -6000,30 +5556,20 @@
       <c r="K30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>.429</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
         <v>3</v>
@@ -6031,10 +5577,8 @@
       <c r="R30" t="n">
         <v>7</v>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S30" t="n">
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -6042,23 +5586,17 @@
       <c r="U30" t="n">
         <v>3</v>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V30" t="n">
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>17</v>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
+      <c r="X30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-18</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
@@ -6150,8 +5688,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1707177600</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -6189,30 +5729,20 @@
       <c r="K31" t="n">
         <v>0.333</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>.538</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L31" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
         <v>10</v>
@@ -6220,10 +5750,8 @@
       <c r="R31" t="n">
         <v>6</v>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S31" t="n">
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -6231,23 +5759,17 @@
       <c r="U31" t="n">
         <v>5</v>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V31" t="n">
+        <v>5</v>
       </c>
       <c r="W31" t="n">
         <v>34</v>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>21.8</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X31" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
@@ -6339,8 +5861,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1706918400</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -6378,30 +5902,20 @@
       <c r="K32" t="n">
         <v>0.4</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>.600</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L32" t="n">
+        <v>6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
         <v>6</v>
@@ -6409,10 +5923,8 @@
       <c r="R32" t="n">
         <v>10</v>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="S32" t="n">
+        <v>5</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -6420,23 +5932,17 @@
       <c r="U32" t="n">
         <v>1</v>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V32" t="n">
+        <v>3</v>
       </c>
       <c r="W32" t="n">
         <v>48</v>
       </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="X32" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>15</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
@@ -6528,8 +6034,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1706659200</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -6567,30 +6075,20 @@
       <c r="K33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>.636</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L33" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
         <v>8</v>
@@ -6598,10 +6096,8 @@
       <c r="R33" t="n">
         <v>4</v>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S33" t="n">
+        <v>3</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -6609,23 +6105,17 @@
       <c r="U33" t="n">
         <v>6</v>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V33" t="n">
+        <v>5</v>
       </c>
       <c r="W33" t="n">
         <v>27</v>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>20.3</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="X33" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
@@ -6717,8 +6207,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1706486400</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -6756,30 +6248,20 @@
       <c r="K34" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>.545</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L34" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
       </c>
       <c r="Q34" t="n">
         <v>12</v>
@@ -6787,10 +6269,8 @@
       <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S34" t="n">
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>1</v>
@@ -6798,23 +6278,17 @@
       <c r="U34" t="n">
         <v>2</v>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V34" t="n">
+        <v>4</v>
       </c>
       <c r="W34" t="n">
         <v>29</v>
       </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>23.4</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="X34" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-3</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
@@ -6906,8 +6380,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1706227200</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -6943,30 +6419,20 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>.444</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L35" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>9</v>
       </c>
       <c r="Q35" t="n">
         <v>11</v>
@@ -6974,10 +6440,8 @@
       <c r="R35" t="n">
         <v>9</v>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S35" t="n">
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>1</v>
@@ -6985,23 +6449,17 @@
       <c r="U35" t="n">
         <v>6</v>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V35" t="n">
+        <v>5</v>
       </c>
       <c r="W35" t="n">
         <v>22</v>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>18.6</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="X35" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -7093,8 +6551,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1706054400</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -7130,30 +6590,20 @@
       <c r="K36" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>16</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -7161,10 +6611,8 @@
       <c r="R36" t="n">
         <v>10</v>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S36" t="n">
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
@@ -7172,23 +6620,17 @@
       <c r="U36" t="n">
         <v>2</v>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V36" t="n">
+        <v>3</v>
       </c>
       <c r="W36" t="n">
         <v>35</v>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>35.6</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="X36" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>11</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
@@ -7280,8 +6722,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1705881600</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -7319,30 +6763,20 @@
       <c r="K37" t="n">
         <v>0.2</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="L37" t="n">
+        <v>8</v>
+      </c>
+      <c r="M37" t="n">
+        <v>12</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>14</v>
       </c>
       <c r="Q37" t="n">
         <v>17</v>
@@ -7350,10 +6784,8 @@
       <c r="R37" t="n">
         <v>10</v>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S37" t="n">
+        <v>3</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -7361,23 +6793,17 @@
       <c r="U37" t="n">
         <v>2</v>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V37" t="n">
+        <v>3</v>
       </c>
       <c r="W37" t="n">
         <v>31</v>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="X37" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>12</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
@@ -7469,8 +6895,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1705708800</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -7508,30 +6936,20 @@
       <c r="K38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L38" t="n">
+        <v>11</v>
+      </c>
+      <c r="M38" t="n">
+        <v>22</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7</v>
       </c>
       <c r="Q38" t="n">
         <v>10</v>
@@ -7539,10 +6957,8 @@
       <c r="R38" t="n">
         <v>9</v>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S38" t="n">
+        <v>2</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -7550,23 +6966,17 @@
       <c r="U38" t="n">
         <v>5</v>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V38" t="n">
+        <v>1</v>
       </c>
       <c r="W38" t="n">
         <v>31</v>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>27.2</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X38" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>13</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
@@ -7658,8 +7068,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1705190400</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -7695,30 +7107,20 @@
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>.643</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L39" t="n">
+        <v>9</v>
+      </c>
+      <c r="M39" t="n">
+        <v>14</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>9</v>
       </c>
       <c r="Q39" t="n">
         <v>10</v>
@@ -7726,10 +7128,8 @@
       <c r="R39" t="n">
         <v>10</v>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S39" t="n">
+        <v>3</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -7737,23 +7137,17 @@
       <c r="U39" t="n">
         <v>4</v>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V39" t="n">
+        <v>4</v>
       </c>
       <c r="W39" t="n">
         <v>27</v>
       </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>25.2</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
+      <c r="X39" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-13</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
@@ -7845,8 +7239,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1705104000</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -7882,30 +7278,20 @@
       <c r="K40" t="n">
         <v>0.333</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L40" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6</v>
       </c>
       <c r="Q40" t="n">
         <v>9</v>
@@ -7913,10 +7299,8 @@
       <c r="R40" t="n">
         <v>5</v>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S40" t="n">
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -7924,23 +7308,17 @@
       <c r="U40" t="n">
         <v>4</v>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V40" t="n">
+        <v>3</v>
       </c>
       <c r="W40" t="n">
         <v>33</v>
       </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>24.2</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="X40" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
@@ -8032,8 +7410,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1704931200</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -8069,30 +7449,20 @@
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>.800</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
         <v>12</v>
@@ -8100,10 +7470,8 @@
       <c r="R41" t="n">
         <v>6</v>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>1</v>
@@ -8111,23 +7479,17 @@
       <c r="U41" t="n">
         <v>4</v>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V41" t="n">
+        <v>2</v>
       </c>
       <c r="W41" t="n">
         <v>24</v>
       </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>25.2</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>+38</t>
-        </is>
+      <c r="X41" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>38</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
@@ -8219,8 +7581,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1704499200</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -8258,30 +7622,20 @@
       <c r="K42" t="n">
         <v>0.5</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>.714</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="L42" t="n">
+        <v>15</v>
+      </c>
+      <c r="M42" t="n">
+        <v>21</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>14</v>
       </c>
       <c r="Q42" t="n">
         <v>17</v>
@@ -8289,10 +7643,8 @@
       <c r="R42" t="n">
         <v>2</v>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S42" t="n">
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -8300,23 +7652,17 @@
       <c r="U42" t="n">
         <v>2</v>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V42" t="n">
+        <v>4</v>
       </c>
       <c r="W42" t="n">
         <v>48</v>
       </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>39.3</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="X42" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-1</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
@@ -8408,8 +7754,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1704326400</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8447,30 +7795,20 @@
       <c r="K43" t="n">
         <v>0.667</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>11</v>
       </c>
       <c r="Q43" t="n">
         <v>14</v>
@@ -8478,10 +7816,8 @@
       <c r="R43" t="n">
         <v>7</v>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S43" t="n">
+        <v>2</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
@@ -8489,23 +7825,17 @@
       <c r="U43" t="n">
         <v>1</v>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V43" t="n">
+        <v>3</v>
       </c>
       <c r="W43" t="n">
         <v>44</v>
       </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="X43" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>11</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
@@ -8597,8 +7927,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1704240000</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8636,30 +7968,20 @@
       <c r="K44" t="n">
         <v>0.5</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>.692</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L44" t="n">
+        <v>9</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>11</v>
       </c>
       <c r="Q44" t="n">
         <v>11</v>
@@ -8667,10 +7989,8 @@
       <c r="R44" t="n">
         <v>8</v>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S44" t="n">
+        <v>3</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -8678,23 +7998,17 @@
       <c r="U44" t="n">
         <v>3</v>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V44" t="n">
+        <v>2</v>
       </c>
       <c r="W44" t="n">
         <v>26</v>
       </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>27.3</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="X44" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-12</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
@@ -8786,8 +8100,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1704067200</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -8823,30 +8139,20 @@
       <c r="K45" t="n">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>.727</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="L45" t="n">
+        <v>8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>11</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>15</v>
       </c>
       <c r="Q45" t="n">
         <v>18</v>
@@ -8854,10 +8160,8 @@
       <c r="R45" t="n">
         <v>11</v>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S45" t="n">
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>2</v>
@@ -8865,23 +8169,17 @@
       <c r="U45" t="n">
         <v>4</v>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V45" t="n">
+        <v>3</v>
       </c>
       <c r="W45" t="n">
         <v>30</v>
       </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="X45" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
@@ -8973,8 +8271,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1703808000</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -9012,30 +8312,20 @@
       <c r="K46" t="n">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>.857</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="L46" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>7</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>14</v>
       </c>
       <c r="Q46" t="n">
         <v>16</v>
@@ -9043,10 +8333,8 @@
       <c r="R46" t="n">
         <v>5</v>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S46" t="n">
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -9054,23 +8342,17 @@
       <c r="U46" t="n">
         <v>3</v>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V46" t="n">
+        <v>2</v>
       </c>
       <c r="W46" t="n">
         <v>34</v>
       </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>30.1</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="X46" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>12</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
@@ -9162,8 +8444,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1703462400</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -9201,30 +8485,20 @@
       <c r="K47" t="n">
         <v>0.5</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>.556</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L47" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5</v>
+      </c>
+      <c r="P47" t="n">
+        <v>8</v>
       </c>
       <c r="Q47" t="n">
         <v>13</v>
@@ -9232,10 +8506,8 @@
       <c r="R47" t="n">
         <v>6</v>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S47" t="n">
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>2</v>
@@ -9243,23 +8515,17 @@
       <c r="U47" t="n">
         <v>2</v>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V47" t="n">
+        <v>4</v>
       </c>
       <c r="W47" t="n">
         <v>32</v>
       </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>27.7</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X47" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-5</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
@@ -9351,8 +8617,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1703289600</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -9390,30 +8658,20 @@
       <c r="K48" t="n">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L48" t="n">
+        <v>6</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
         <v>7</v>
@@ -9421,10 +8679,8 @@
       <c r="R48" t="n">
         <v>7</v>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S48" t="n">
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -9432,23 +8688,17 @@
       <c r="U48" t="n">
         <v>5</v>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V48" t="n">
+        <v>4</v>
       </c>
       <c r="W48" t="n">
         <v>28</v>
       </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>22.6</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="X48" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
@@ -9540,8 +8790,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1703116800</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -9577,30 +8829,20 @@
       <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>.789</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L49" t="n">
+        <v>15</v>
+      </c>
+      <c r="M49" t="n">
+        <v>19</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>8</v>
       </c>
       <c r="Q49" t="n">
         <v>10</v>
@@ -9608,10 +8850,8 @@
       <c r="R49" t="n">
         <v>6</v>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S49" t="n">
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>2</v>
@@ -9619,23 +8859,17 @@
       <c r="U49" t="n">
         <v>5</v>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V49" t="n">
+        <v>4</v>
       </c>
       <c r="W49" t="n">
         <v>37</v>
       </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="X49" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>9</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
@@ -9727,8 +8961,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1702944000</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -9764,30 +9000,20 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>6</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>12</v>
       </c>
       <c r="Q50" t="n">
         <v>14</v>
@@ -9795,10 +9021,8 @@
       <c r="R50" t="n">
         <v>16</v>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S50" t="n">
+        <v>2</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -9806,23 +9030,17 @@
       <c r="U50" t="n">
         <v>3</v>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V50" t="n">
+        <v>1</v>
       </c>
       <c r="W50" t="n">
         <v>11</v>
       </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>18.5</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>13</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
@@ -9914,8 +9132,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1702771200</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -9951,30 +9171,20 @@
       <c r="K51" t="n">
         <v>0.333</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>.455</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L51" t="n">
+        <v>5</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" t="n">
+        <v>11</v>
       </c>
       <c r="Q51" t="n">
         <v>17</v>
@@ -9982,10 +9192,8 @@
       <c r="R51" t="n">
         <v>3</v>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S51" t="n">
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -9993,23 +9201,17 @@
       <c r="U51" t="n">
         <v>6</v>
       </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V51" t="n">
+        <v>3</v>
       </c>
       <c r="W51" t="n">
         <v>26</v>
       </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>14.6</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="X51" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>11</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
@@ -10101,8 +9303,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>1702684800</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -10138,30 +9342,20 @@
       <c r="K52" t="n">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>.615</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L52" t="n">
+        <v>8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>13</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>7</v>
       </c>
       <c r="Q52" t="n">
         <v>8</v>
@@ -10169,10 +9363,8 @@
       <c r="R52" t="n">
         <v>6</v>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S52" t="n">
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -10180,23 +9372,17 @@
       <c r="U52" t="n">
         <v>0</v>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V52" t="n">
+        <v>1</v>
       </c>
       <c r="W52" t="n">
         <v>22</v>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>24.1</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="X52" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>22</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
@@ -10288,8 +9474,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>1702425600</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -10325,30 +9513,20 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L53" t="n">
+        <v>24</v>
+      </c>
+      <c r="M53" t="n">
+        <v>32</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>11</v>
       </c>
       <c r="Q53" t="n">
         <v>14</v>
@@ -10356,10 +9534,8 @@
       <c r="R53" t="n">
         <v>3</v>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="S53" t="n">
+        <v>4</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -10367,23 +9543,17 @@
       <c r="U53" t="n">
         <v>4</v>
       </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V53" t="n">
+        <v>1</v>
       </c>
       <c r="W53" t="n">
         <v>64</v>
       </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>+29</t>
-        </is>
+      <c r="X53" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>29</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
@@ -10475,8 +9645,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>1702252800</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -10512,30 +9684,20 @@
       <c r="K54" t="n">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>.778</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="L54" t="n">
+        <v>14</v>
+      </c>
+      <c r="M54" t="n">
+        <v>18</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>11</v>
       </c>
       <c r="Q54" t="n">
         <v>12</v>
@@ -10543,10 +9705,8 @@
       <c r="R54" t="n">
         <v>6</v>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S54" t="n">
+        <v>2</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -10554,23 +9714,17 @@
       <c r="U54" t="n">
         <v>2</v>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V54" t="n">
+        <v>2</v>
       </c>
       <c r="W54" t="n">
         <v>32</v>
       </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>32.3</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X54" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>13</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
@@ -10662,8 +9816,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>1701907200</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -10699,30 +9855,20 @@
       <c r="K55" t="n">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>.846</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L55" t="n">
+        <v>11</v>
+      </c>
+      <c r="M55" t="n">
+        <v>13</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>9</v>
       </c>
       <c r="Q55" t="n">
         <v>10</v>
@@ -10730,10 +9876,8 @@
       <c r="R55" t="n">
         <v>2</v>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S55" t="n">
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>2</v>
@@ -10741,23 +9885,17 @@
       <c r="U55" t="n">
         <v>1</v>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V55" t="n">
+        <v>3</v>
       </c>
       <c r="W55" t="n">
         <v>37</v>
       </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>32.1</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="X55" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-5</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
@@ -10849,8 +9987,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>1701734400</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -10886,30 +10026,20 @@
       <c r="K56" t="n">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>.444</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
         <v>8</v>
@@ -10917,10 +10047,8 @@
       <c r="R56" t="n">
         <v>10</v>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S56" t="n">
+        <v>3</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -10928,23 +10056,17 @@
       <c r="U56" t="n">
         <v>4</v>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V56" t="n">
+        <v>3</v>
       </c>
       <c r="W56" t="n">
         <v>35</v>
       </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="X56" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>19</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
@@ -11036,8 +10158,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1701475200</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -11073,30 +10197,20 @@
       <c r="K57" t="n">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>.800</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L57" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>9</v>
       </c>
       <c r="Q57" t="n">
         <v>11</v>
@@ -11104,10 +10218,8 @@
       <c r="R57" t="n">
         <v>10</v>
       </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S57" t="n">
+        <v>2</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -11115,23 +10227,17 @@
       <c r="U57" t="n">
         <v>5</v>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V57" t="n">
+        <v>1</v>
       </c>
       <c r="W57" t="n">
         <v>32</v>
       </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>31.6</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="X57" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>8</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
@@ -11223,8 +10329,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1701302400</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -11262,30 +10370,20 @@
       <c r="K58" t="n">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6</v>
+      </c>
+      <c r="P58" t="n">
+        <v>8</v>
       </c>
       <c r="Q58" t="n">
         <v>14</v>
@@ -11293,10 +10391,8 @@
       <c r="R58" t="n">
         <v>5</v>
       </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S58" t="n">
+        <v>2</v>
       </c>
       <c r="T58" t="n">
         <v>5</v>
@@ -11304,23 +10400,17 @@
       <c r="U58" t="n">
         <v>5</v>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V58" t="n">
+        <v>5</v>
       </c>
       <c r="W58" t="n">
         <v>26</v>
       </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>27.1</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="X58" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-8</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
@@ -11412,8 +10502,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1701129600</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -11451,30 +10543,20 @@
       <c r="K59" t="n">
         <v>0.5</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>.769</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L59" t="n">
+        <v>10</v>
+      </c>
+      <c r="M59" t="n">
+        <v>13</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>8</v>
       </c>
       <c r="Q59" t="n">
         <v>10</v>
@@ -11482,10 +10564,8 @@
       <c r="R59" t="n">
         <v>5</v>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S59" t="n">
+        <v>3</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -11493,23 +10573,17 @@
       <c r="U59" t="n">
         <v>4</v>
       </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V59" t="n">
+        <v>3</v>
       </c>
       <c r="W59" t="n">
         <v>33</v>
       </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="X59" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>18</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
@@ -11601,8 +10675,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1700956800</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -11638,30 +10714,20 @@
       <c r="K60" t="n">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>.611</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L60" t="n">
+        <v>11</v>
+      </c>
+      <c r="M60" t="n">
+        <v>18</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="O60" t="n">
+        <v>6</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
       </c>
       <c r="Q60" t="n">
         <v>16</v>
@@ -11669,10 +10735,8 @@
       <c r="R60" t="n">
         <v>6</v>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S60" t="n">
+        <v>1</v>
       </c>
       <c r="T60" t="n">
         <v>3</v>
@@ -11680,23 +10744,17 @@
       <c r="U60" t="n">
         <v>4</v>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="V60" t="n">
+        <v>5</v>
       </c>
       <c r="W60" t="n">
         <v>33</v>
       </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>28.4</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="X60" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>9</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
@@ -11788,8 +10846,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1700784000</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -11825,30 +10885,20 @@
       <c r="K61" t="n">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L61" t="n">
+        <v>9</v>
+      </c>
+      <c r="M61" t="n">
+        <v>12</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6</v>
       </c>
       <c r="Q61" t="n">
         <v>9</v>
@@ -11856,10 +10906,8 @@
       <c r="R61" t="n">
         <v>3</v>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S61" t="n">
+        <v>3</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
@@ -11867,23 +10915,17 @@
       <c r="U61" t="n">
         <v>3</v>
       </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V61" t="n">
+        <v>2</v>
       </c>
       <c r="W61" t="n">
         <v>31</v>
       </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>26.8</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="X61" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>-10</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
@@ -11975,8 +11017,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>1700611200</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -12014,30 +11058,20 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>.700</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L62" t="n">
+        <v>7</v>
+      </c>
+      <c r="M62" t="n">
+        <v>10</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
       </c>
       <c r="Q62" t="n">
         <v>13</v>
@@ -12045,10 +11079,8 @@
       <c r="R62" t="n">
         <v>5</v>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S62" t="n">
+        <v>2</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -12056,23 +11088,17 @@
       <c r="U62" t="n">
         <v>3</v>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V62" t="n">
+        <v>4</v>
       </c>
       <c r="W62" t="n">
         <v>21</v>
       </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>14.6</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="X62" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>6</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
@@ -12164,8 +11190,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>1700438400</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -12203,30 +11231,20 @@
       <c r="K63" t="n">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>6</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7</v>
       </c>
       <c r="Q63" t="n">
         <v>13</v>
@@ -12234,10 +11252,8 @@
       <c r="R63" t="n">
         <v>8</v>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
       <c r="T63" t="n">
         <v>1</v>
@@ -12245,23 +11261,17 @@
       <c r="U63" t="n">
         <v>5</v>
       </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V63" t="n">
+        <v>2</v>
       </c>
       <c r="W63" t="n">
         <v>42</v>
       </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>40.1</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="X63" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>10</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
@@ -12353,8 +11363,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>1700265600</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -12390,30 +11402,20 @@
       <c r="K64" t="n">
         <v>0.333</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>.600</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>13</v>
       </c>
       <c r="Q64" t="n">
         <v>15</v>
@@ -12421,10 +11423,8 @@
       <c r="R64" t="n">
         <v>7</v>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S64" t="n">
+        <v>2</v>
       </c>
       <c r="T64" t="n">
         <v>1</v>
@@ -12432,23 +11432,17 @@
       <c r="U64" t="n">
         <v>3</v>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V64" t="n">
+        <v>3</v>
       </c>
       <c r="W64" t="n">
         <v>40</v>
       </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="X64" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-7</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
@@ -12540,8 +11534,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>1699833600</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -12577,30 +11573,20 @@
       <c r="K65" t="n">
         <v>0.333</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>.571</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L65" t="n">
+        <v>8</v>
+      </c>
+      <c r="M65" t="n">
+        <v>14</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" t="n">
+        <v>8</v>
       </c>
       <c r="Q65" t="n">
         <v>11</v>
@@ -12608,10 +11594,8 @@
       <c r="R65" t="n">
         <v>2</v>
       </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S65" t="n">
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -12619,23 +11603,17 @@
       <c r="U65" t="n">
         <v>3</v>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V65" t="n">
+        <v>4</v>
       </c>
       <c r="W65" t="n">
         <v>35</v>
       </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>23.7</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X65" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>13</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
@@ -12727,8 +11705,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>1699660800</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -12766,30 +11746,20 @@
       <c r="K66" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>.417</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L66" t="n">
+        <v>5</v>
+      </c>
+      <c r="M66" t="n">
+        <v>12</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>8</v>
       </c>
       <c r="Q66" t="n">
         <v>10</v>
@@ -12797,10 +11767,8 @@
       <c r="R66" t="n">
         <v>7</v>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="S66" t="n">
+        <v>4</v>
       </c>
       <c r="T66" t="n">
         <v>2</v>
@@ -12808,23 +11776,17 @@
       <c r="U66" t="n">
         <v>6</v>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V66" t="n">
+        <v>4</v>
       </c>
       <c r="W66" t="n">
         <v>35</v>
       </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>29.3</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="X66" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-11</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
@@ -12916,8 +11878,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1699488000</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -12955,30 +11919,20 @@
       <c r="K67" t="n">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>.889</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="L67" t="n">
+        <v>16</v>
+      </c>
+      <c r="M67" t="n">
+        <v>18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+      <c r="P67" t="n">
+        <v>10</v>
       </c>
       <c r="Q67" t="n">
         <v>12</v>
@@ -12986,10 +11940,8 @@
       <c r="R67" t="n">
         <v>3</v>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S67" t="n">
+        <v>0</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -12997,23 +11949,17 @@
       <c r="U67" t="n">
         <v>8</v>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V67" t="n">
+        <v>4</v>
       </c>
       <c r="W67" t="n">
         <v>54</v>
       </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>40.2</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="X67" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>6</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
@@ -13105,8 +12051,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>1699401600</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -13142,30 +12090,20 @@
       <c r="K68" t="n">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="L68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>9</v>
       </c>
       <c r="Q68" t="n">
         <v>9</v>
@@ -13173,10 +12111,8 @@
       <c r="R68" t="n">
         <v>5</v>
       </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S68" t="n">
+        <v>0</v>
       </c>
       <c r="T68" t="n">
         <v>3</v>
@@ -13184,23 +12120,17 @@
       <c r="U68" t="n">
         <v>1</v>
       </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V68" t="n">
+        <v>1</v>
       </c>
       <c r="W68" t="n">
         <v>15</v>
       </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="X68" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>5</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
@@ -13292,8 +12222,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>1698969600</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -13329,30 +12261,20 @@
       <c r="K69" t="n">
         <v>1</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>.538</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="L69" t="n">
+        <v>7</v>
+      </c>
+      <c r="M69" t="n">
+        <v>13</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>7</v>
       </c>
       <c r="Q69" t="n">
         <v>8</v>
@@ -13360,10 +12282,8 @@
       <c r="R69" t="n">
         <v>6</v>
       </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S69" t="n">
+        <v>0</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
@@ -13371,23 +12291,17 @@
       <c r="U69" t="n">
         <v>7</v>
       </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V69" t="n">
+        <v>3</v>
       </c>
       <c r="W69" t="n">
         <v>22</v>
       </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>14.5</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="X69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>13</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
@@ -13479,8 +12393,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>1698796800</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -13518,30 +12434,20 @@
       <c r="K70" t="n">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>.667</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="L70" t="n">
+        <v>6</v>
+      </c>
+      <c r="M70" t="n">
+        <v>9</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
         <v>4</v>
@@ -13549,10 +12455,8 @@
       <c r="R70" t="n">
         <v>2</v>
       </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S70" t="n">
+        <v>1</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
@@ -13560,23 +12464,17 @@
       <c r="U70" t="n">
         <v>3</v>
       </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V70" t="n">
+        <v>3</v>
       </c>
       <c r="W70" t="n">
         <v>16</v>
       </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="X70" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>-10</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
@@ -13668,8 +12566,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>1698624000</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -13705,30 +12605,20 @@
       <c r="K71" t="n">
         <v>0.333</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>.727</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L71" t="n">
+        <v>8</v>
+      </c>
+      <c r="M71" t="n">
+        <v>11</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>6</v>
       </c>
       <c r="Q71" t="n">
         <v>7</v>
@@ -13736,10 +12626,8 @@
       <c r="R71" t="n">
         <v>2</v>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S71" t="n">
+        <v>0</v>
       </c>
       <c r="T71" t="n">
         <v>1</v>
@@ -13747,23 +12635,17 @@
       <c r="U71" t="n">
         <v>2</v>
       </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="V71" t="n">
+        <v>3</v>
       </c>
       <c r="W71" t="n">
         <v>33</v>
       </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>23.3</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="X71" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>18</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
@@ -13855,8 +12737,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>1698537600</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -13892,30 +12776,20 @@
       <c r="K72" t="n">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>.800</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="L72" t="n">
+        <v>8</v>
+      </c>
+      <c r="M72" t="n">
+        <v>10</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O72" t="n">
+        <v>5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>6</v>
       </c>
       <c r="Q72" t="n">
         <v>11</v>
@@ -13923,10 +12797,8 @@
       <c r="R72" t="n">
         <v>3</v>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S72" t="n">
+        <v>1</v>
       </c>
       <c r="T72" t="n">
         <v>2</v>
@@ -13934,23 +12806,17 @@
       <c r="U72" t="n">
         <v>3</v>
       </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V72" t="n">
+        <v>2</v>
       </c>
       <c r="W72" t="n">
         <v>26</v>
       </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="X72" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>-11</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
@@ -14042,8 +12908,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>1698278400</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -14079,30 +12947,20 @@
       <c r="K73" t="n">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O73" t="n">
+        <v>4</v>
+      </c>
+      <c r="P73" t="n">
+        <v>8</v>
       </c>
       <c r="Q73" t="n">
         <v>12</v>
@@ -14110,10 +12968,8 @@
       <c r="R73" t="n">
         <v>3</v>
       </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S73" t="n">
+        <v>2</v>
       </c>
       <c r="T73" t="n">
         <v>2</v>
@@ -14121,23 +12977,17 @@
       <c r="U73" t="n">
         <v>7</v>
       </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="V73" t="n">
+        <v>4</v>
       </c>
       <c r="W73" t="n">
         <v>23</v>
       </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
+      <c r="X73" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>-13</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
